--- a/medicine/Enfance/Fredrick_d'Anterny/Fredrick_d'Anterny.xlsx
+++ b/medicine/Enfance/Fredrick_d'Anterny/Fredrick_d'Anterny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fredrick_d%27Anterny</t>
+          <t>Fredrick_d'Anterny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fredrick D’Anterny, né en 1967 à Nice, en France, est un écrivain québécois d’origine française, spécialisé dans la littérature jeunesse fantastique ainsi que dans le roman fantastique et de science-fiction pour adultes. Il est également animateur, formateur, conférencier, infographiste et éditeur. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fredrick_d%27Anterny</t>
+          <t>Fredrick_d'Anterny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrivé au Canada en 1984, et après plusieurs soumissions de textes et d’illustrations à divers journaux, il s'investit dans l’écriture. Il occupe plusieurs métiers, dont ceux de libraire et de représentant commercial pour un distributeur canadien de livres. Il écrit des manuscrits qui sont d’abord refusés par les éditeurs puis les séries Éolia et Storine voient le jour aux Éditions Pierre Tisseyre. À partir de 2005, il écrit à temps plein. Ses livres sont destinés aux adolescents, jusqu’en 2007 où il s'intéresse à la littérature pour adultes. 
 Il termine l’écriture de son premier roman, Éolia, princesse de lumières, en 1995. À la suite d’une pause de près de sept ans, il publie, en 2002, le premier des dix tomes de la série de science-fiction Storine, l’orpheline des étoiles, série qu’il termine en 2011 avec la sortie de Storine, l’orpheline des étoiles. En 2006, il reprend la série Éolia et écrit 15 autres récits. En 2007, Frédrick D’Anterny publie Bélios, Mémoires de réincarnés, un roman surnaturel pour adultes. D’autres séries comme Les messagers de Gaïa (9 tomes), et Les sept cristaux de Shamballa (7 tomes), paraissent aux éditions Michel Quintin et ADA éditeurs.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fredrick_d%27Anterny</t>
+          <t>Fredrick_d'Anterny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
-Série Storine
-Tome 1 : Le lion blanc, Éditions Pierre Tisseyre, 2002
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Storine</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tome 1 : Le lion blanc, Éditions Pierre Tisseyre, 2002
 Tome 2 : Les marécages de l’âme, Éditions Pierre Tisseyre, 2003
 Tome 3 : Le maître des frayeurs, Éditions Pierre Tisseyre, 2004
 Tome 4 : Les naufragés d’Illophène, Éditions Pierre Tisseyre, 2004
@@ -561,9 +583,47 @@
 Tome 7 : Le secret des prophètes, Éditions Pierre Tisseyre, 2006
 Tome 8 : Le procès des Dieux, Éditions Pierre Tisseyre, 2006
 Tome 9 : Le fléau de Vinor, Éditions Pierre Tisseyre, 2007
-L’inédit, Éditions Pierre Tisseyre, 2011
-Série Éolia
-Le garçon qui n’existait plus, Éditions Pierre Tisseyre, 1995
+L’inédit, Éditions Pierre Tisseyre, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fredrick_d'Anterny</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrick_d%27Anterny</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Éolia</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le garçon qui n’existait plus, Éditions Pierre Tisseyre, 1995
 La forêt invisible, Éditions Pierre Tisseyre, 2006
 Le prince de la musique, Éditions Pierre Tisseyre, 2006
 Panique au salon du livre, Éditions Pierre Tisseyre, 2006
@@ -577,9 +637,47 @@
 Les justicières de la nuit, Éditions Pierre Tisseyre, 2009
 L’énigme du Vif-Argent, Éditions Pierre Tisseyre, 2010
 Le mystère de la dame de pique, Éditions Pierre Tisseyre, 2011
-Le roi des vagabonds, Éditions Pierre Tisseyre, 2012
-Série Les Messagers de Gaïa
-Tome 1 : La Pierre du destin, Édition Michel Quintin, 2008
+Le roi des vagabonds, Éditions Pierre Tisseyre, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fredrick_d'Anterny</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrick_d%27Anterny</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Les Messagers de Gaïa</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tome 1 : La Pierre du destin, Édition Michel Quintin, 2008
 Tome 2 : Les Tablettes de Mitrinos, Édition Michel Quintin, 2008
 Tome 3 : L'Autel des Sacrifiés, Édition Michel Quintin, 2009
 Tome 4 : Les Brumes de Shandarée, Édition Michel Quintin, 2009
@@ -587,43 +685,309 @@
 Tome 6 : Le testament des rois, Édition Michel Quintin, 2010
 Tome 7 : Le chevalier de cristal, Édition Michel Quintin, 2011
 Tome 8 : Le règne des Spiraliens, Édition Michel Quintin, 2012
-Tome 9 : Ermenaggon, Édition Michel Quintin, 2012
-Les 7 cristaux de Shamballa
-Tome 1 : Les porteurs de lumière, 2011
+Tome 9 : Ermenaggon, Édition Michel Quintin, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fredrick_d'Anterny</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrick_d%27Anterny</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Les 7 cristaux de Shamballa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tome 1 : Les porteurs de lumière, 2011
 Tome 2 : Le cristal de Nebalom, 2011
 Tome 3 : La créature de Musqueroi, 2011
 Tome 4 : Les fissures du monde, 2012
 Tome 5 : Le tombeau de Tzardès, 2012
 Tome 6 : Le retour du prince, 2013
-Tome 7 : La tour des trois soleils, 2014
-Série : Béa et Mia 
-Les super blogueuses, Édition Michel Quintin, 2014
+Tome 7 : La tour des trois soleils, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fredrick_d'Anterny</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrick_d%27Anterny</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série : Béa et Mia </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les super blogueuses, Édition Michel Quintin, 2014
 Des lignes et des embrouilles, Édition Michel Quintin, 2014
-Chasse aux masques, Édition Michel Quintin, 2015
-Collection Crimes &amp; Réincarnations
-Vous ne survivrez pas !, Édition Michel Quintin, 2011
+Chasse aux masques, Édition Michel Quintin, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fredrick_d'Anterny</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrick_d%27Anterny</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Collection Crimes &amp; Réincarnations</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vous ne survivrez pas !, Édition Michel Quintin, 2011
 Les amants de Beaufort, Édition Michel Quintin, 2011
-Ensorcellement, Édition Michel Quintin, 2011
-Autres romans aux éditions Pierre Tisseyre
-L’été des secrets, Éditions Pierre Tisseyre, 2015
+Ensorcellement, Édition Michel Quintin, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fredrick_d'Anterny</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrick_d%27Anterny</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres romans aux éditions Pierre Tisseyre</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L’été des secrets, Éditions Pierre Tisseyre, 2015
 La fille qui mangeait les signets, Éditions Pierre Tisseyre, 2016
-Le garçon qui broyait les livres, Éditions Pierre Tisseyre, 2017
-Aux éditions AdA 
-Bélios, mémoires de réincarnés, 2007 
+Le garçon qui broyait les livres, Éditions Pierre Tisseyre, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fredrick_d'Anterny</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrick_d%27Anterny</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux éditions AdA </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bélios, mémoires de réincarnés, 2007 
 Albums illustrés par Christine Dallaire-Dupont :
 Les aventures de la petite flamme bleue, 2008
 Le papillon de lumière, 2009
 La petite flamme bleue et l’étoile perdue, 2011
 Avec Chantal Déry :
-Joue avec la petite flamme bleue – jeu de 49 cartes,2011 
-Aux éditions du Phoenix (Avec Chantal Déry)
-Collection Les accords toltèques expliqués aux enfants, 6 à 9 ans.
+Joue avec la petite flamme bleue – jeu de 49 cartes,2011 </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fredrick_d'Anterny</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrick_d%27Anterny</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Aux éditions du Phoenix (Avec Chantal Déry)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Collection Les accords toltèques expliqués aux enfants, 6 à 9 ans.
 Théo fait son numéro, 2016
 Emma est dans tous ses états, 2016
 Olivier se traine les pieds, 2017
-Coraline la maligne, 2017
-Romans adultes spirituels fantastiques
-Mémoires de réincarnés, 2007
+Coraline la maligne, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fredrick_d'Anterny</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fredrick_d%27Anterny</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Romans adultes spirituels fantastiques</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mémoires de réincarnés, 2007
 Le portail des Anges, 2010 
 </t>
         </is>
